--- a/NEW HR/DONE/MARINDUQUE, ROWENA.xlsx
+++ b/NEW HR/DONE/MARINDUQUE, ROWENA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -624,17 +627,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -644,6 +644,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1174,7 +1177,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1220,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1284,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1344,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1410,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,7 +1473,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1571,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1630,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1695,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1738,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1810,7 +1813,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,7 +1999,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2065,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2123,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2189,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2245,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2317,7 +2320,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2363,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2429,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2482,7 +2485,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2581,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K130" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2955,12 +2958,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
+      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,14 +2993,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3009,14 +3012,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3030,16 +3033,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -3072,18 +3075,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3130,7 +3133,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -3140,7 +3143,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>90</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4497,7 +4500,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="52">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="21"/>
       <c r="C76" s="14">
@@ -4516,8 +4519,8 @@
       <c r="K76" s="21"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="42">
-        <v>44958</v>
+      <c r="A77" s="52">
+        <v>44985</v>
       </c>
       <c r="B77" s="21"/>
       <c r="C77" s="14">
@@ -4536,8 +4539,8 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="42">
-        <v>44986</v>
+      <c r="A78" s="52">
+        <v>45016</v>
       </c>
       <c r="B78" s="21"/>
       <c r="C78" s="14">
@@ -4556,15 +4559,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="52">
+        <v>45046</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -4572,15 +4579,19 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
+      <c r="A80" s="52">
+        <v>45077</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41"/>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="10"/>
@@ -4588,15 +4599,19 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="52">
+        <v>45107</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
@@ -4604,15 +4619,19 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
+      <c r="A82" s="52">
+        <v>45138</v>
+      </c>
       <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="41"/>
       <c r="I82" s="10"/>
@@ -4620,15 +4639,19 @@
       <c r="K82" s="21"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="52">
+        <v>45169</v>
+      </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="41"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="10"/>
@@ -4636,15 +4659,19 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="52">
+        <v>45199</v>
+      </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="41"/>
       <c r="E84" s="10"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="41"/>
       <c r="I84" s="10"/>
@@ -4652,15 +4679,19 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
+      <c r="A85" s="52">
+        <v>45230</v>
+      </c>
       <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="41"/>
       <c r="E85" s="10"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="41"/>
       <c r="I85" s="10"/>
@@ -4668,15 +4699,19 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="52">
+        <v>45260</v>
+      </c>
       <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
+      <c r="C86" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="41"/>
       <c r="E86" s="10"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="41"/>
       <c r="I86" s="10"/>
@@ -4684,15 +4719,23 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="41"/>
+      <c r="A87" s="52">
+        <v>45291</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="41">
+        <v>5</v>
+      </c>
       <c r="E87" s="10"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="41"/>
       <c r="I87" s="10"/>
@@ -4700,7 +4743,9 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
+      <c r="A88" s="50" t="s">
+        <v>62</v>
+      </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
       <c r="D88" s="41"/>
@@ -4716,7 +4761,9 @@
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
+      <c r="A89" s="52">
+        <v>45322</v>
+      </c>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
       <c r="D89" s="41"/>
@@ -4732,7 +4779,9 @@
       <c r="K89" s="21"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
+      <c r="A90" s="52">
+        <v>45351</v>
+      </c>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
       <c r="D90" s="41"/>
@@ -4748,7 +4797,9 @@
       <c r="K90" s="21"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="42"/>
+      <c r="A91" s="52">
+        <v>45382</v>
+      </c>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
       <c r="D91" s="41"/>
@@ -4764,7 +4815,9 @@
       <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="42"/>
+      <c r="A92" s="52">
+        <v>45412</v>
+      </c>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
       <c r="D92" s="41"/>
@@ -4780,7 +4833,9 @@
       <c r="K92" s="21"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="42"/>
+      <c r="A93" s="52">
+        <v>45443</v>
+      </c>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
       <c r="D93" s="41"/>
@@ -4796,7 +4851,9 @@
       <c r="K93" s="21"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="42"/>
+      <c r="A94" s="52">
+        <v>45473</v>
+      </c>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
       <c r="D94" s="41"/>
@@ -4812,7 +4869,9 @@
       <c r="K94" s="21"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="42"/>
+      <c r="A95" s="52">
+        <v>45504</v>
+      </c>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
       <c r="D95" s="41"/>
@@ -4828,7 +4887,9 @@
       <c r="K95" s="21"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="42"/>
+      <c r="A96" s="52">
+        <v>45535</v>
+      </c>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
       <c r="D96" s="41"/>
@@ -4844,7 +4905,9 @@
       <c r="K96" s="21"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="42"/>
+      <c r="A97" s="52">
+        <v>45565</v>
+      </c>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
       <c r="D97" s="41"/>
@@ -4860,7 +4923,9 @@
       <c r="K97" s="21"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="42"/>
+      <c r="A98" s="52">
+        <v>45596</v>
+      </c>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
       <c r="D98" s="41"/>
@@ -4876,7 +4941,9 @@
       <c r="K98" s="21"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="42"/>
+      <c r="A99" s="52">
+        <v>45626</v>
+      </c>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
       <c r="D99" s="41"/>
@@ -4892,7 +4959,9 @@
       <c r="K99" s="21"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="42"/>
+      <c r="A100" s="52">
+        <v>45657</v>
+      </c>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
       <c r="D100" s="41"/>
@@ -5356,34 +5425,50 @@
       <c r="K128" s="21"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="43"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="44"/>
-      <c r="D129" s="45"/>
+      <c r="A129" s="42"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="41"/>
       <c r="E129" s="10"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="44" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="45"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="41"/>
       <c r="I129" s="10"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="16"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="21"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="43"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="44" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="45"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5421,7 +5506,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5451,14 +5536,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -5470,14 +5555,14 @@
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -5491,16 +5576,16 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -5533,18 +5618,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
